--- a/data/trans_orig/P44-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C335BB-B581-4E85-9C04-1DAF742DDE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9805A0C5-ADB3-4D0C-9B12-148D156C806D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2885ACC8-2CF2-450B-8E78-8D02A630C178}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{465D1695-E29B-4E9F-A8DF-15D6B14DE8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
   </si>
   <si>
     <t>86,06%</t>
   </si>
   <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,789 +145,789 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2015 (Tasa respuesta: 41,68%)</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2015 (Tasa respuesta: 41,68%)</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
     <t>95,94%</t>
   </si>
   <si>
@@ -991,481 +991,469 @@
     <t>56,49%</t>
   </si>
   <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
   </si>
   <si>
     <t>27,38%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
   </si>
   <si>
     <t>41,41%</t>
   </si>
   <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
   </si>
   <si>
     <t>72,62%</t>
   </si>
   <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
   </si>
   <si>
     <t>32,0%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
   </si>
   <si>
     <t>23,67%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
   </si>
   <si>
     <t>68,0%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>76,33%</t>
   </si>
   <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
   </si>
   <si>
     <t>33,69%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
   </si>
   <si>
     <t>34,81%</t>
   </si>
   <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
   </si>
   <si>
     <t>63,98%</t>
   </si>
   <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>66,31%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>65,19%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
   </si>
   <si>
     <t>30,93%</t>
   </si>
   <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
   </si>
   <si>
     <t>68,73%</t>
   </si>
   <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
   </si>
   <si>
     <t>69,07%</t>
   </si>
   <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
+    <t>17,83%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>82,17%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
   </si>
   <si>
     <t>23,82%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>26,56%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
   </si>
   <si>
     <t>76,18%</t>
   </si>
   <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
   </si>
   <si>
     <t>73,44%</t>
   </si>
   <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>37,57%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
   </si>
   <si>
     <t>28,57%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>62,43%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
   </si>
   <si>
     <t>71,43%</t>
   </si>
   <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
   </si>
   <si>
     <t>48,98%</t>
   </si>
   <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>37,06%</t>
   </si>
   <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>42,99%</t>
   </si>
   <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
   </si>
   <si>
     <t>51,02%</t>
   </si>
   <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
   </si>
   <si>
     <t>62,94%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>57,01%</t>
   </si>
   <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
   </si>
   <si>
     <t>38,5%</t>
   </si>
   <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>61,5%</t>
   </si>
   <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844F7808-5764-44DC-8530-0ADF2E3D6553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB286C8-030E-4F65-AB5E-82CA07C1F153}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2636,10 +2624,10 @@
         <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2642,13 @@
         <v>70896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -2669,13 +2657,13 @@
         <v>82987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>142</v>
@@ -2684,13 +2672,13 @@
         <v>153884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,7 +2734,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2758,13 +2746,13 @@
         <v>10271</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -2773,13 +2761,13 @@
         <v>6292</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2788,13 +2776,13 @@
         <v>16563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2797,13 @@
         <v>97478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -2824,13 +2812,13 @@
         <v>123571</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>212</v>
@@ -2839,13 +2827,13 @@
         <v>221049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,7 +2889,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2913,13 +2901,13 @@
         <v>17974</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -2928,13 +2916,13 @@
         <v>22665</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -2943,13 +2931,13 @@
         <v>40638</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2952,13 @@
         <v>220301</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>243</v>
@@ -2979,13 +2967,13 @@
         <v>273415</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
         <v>441</v>
@@ -2994,13 +2982,13 @@
         <v>493716</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,7 +3044,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3068,13 +3056,13 @@
         <v>28008</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3083,13 +3071,13 @@
         <v>15045</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -3098,13 +3086,13 @@
         <v>43052</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3107,13 @@
         <v>233074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>283</v>
@@ -3134,7 +3122,7 @@
         <v>311669</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>138</v>
@@ -3223,7 +3211,7 @@
         <v>113756</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>143</v>
@@ -3274,7 +3262,7 @@
         <v>1080292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>151</v>
@@ -3390,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D201B656-9615-46D8-B9A8-22FD57C8A916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0478F-185B-41EF-8A5A-5DCEA37E1146}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3690,7 +3678,7 @@
         <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3699,13 +3687,13 @@
         <v>17936</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3708,13 @@
         <v>198311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>200</v>
@@ -3735,13 +3723,13 @@
         <v>235377</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>388</v>
@@ -3750,13 +3738,13 @@
         <v>433687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3812,13 @@
         <v>21682</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -3839,13 +3827,13 @@
         <v>19952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -3854,13 +3842,13 @@
         <v>41635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3863,13 @@
         <v>121028</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>126</v>
@@ -3890,7 +3878,7 @@
         <v>139002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>208</v>
@@ -4012,7 +4000,7 @@
         <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>220</v>
@@ -4277,7 +4265,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4319,7 +4307,7 @@
         <v>18991</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>253</v>
@@ -4370,7 +4358,7 @@
         <v>230504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>261</v>
@@ -4432,7 +4420,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4587,7 +4575,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4614,13 +4602,13 @@
         <v>13470</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -4629,13 +4617,13 @@
         <v>39876</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4653,13 @@
         <v>356804</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>581</v>
@@ -4680,10 +4668,10 @@
         <v>645044</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>296</v>
@@ -4921,7 +4909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4799B6C1-44DF-4706-A496-2FA7487695E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB464B-16EB-479C-9DB7-7A5739AC4F50}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5683,10 +5671,10 @@
         <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -5695,13 +5683,13 @@
         <v>29517</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5704,13 @@
         <v>69973</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
@@ -5731,13 +5719,13 @@
         <v>97971</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>401</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>357</v>
@@ -5746,13 +5734,13 @@
         <v>167945</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,7 +5796,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5820,13 +5808,13 @@
         <v>40845</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -5835,13 +5823,13 @@
         <v>32870</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -5850,13 +5838,13 @@
         <v>73715</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5859,13 @@
         <v>98716</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -5886,13 +5874,13 @@
         <v>105118</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -5901,13 +5889,13 @@
         <v>203833</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,7 +5951,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5975,13 +5963,13 @@
         <v>113743</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
@@ -5990,13 +5978,13 @@
         <v>124380</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -6008,10 +5996,10 @@
         <v>163</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6014,13 @@
         <v>189025</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>325</v>
@@ -6041,13 +6029,13 @@
         <v>311006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>542</v>
@@ -6059,10 +6047,10 @@
         <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>365</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,7 +6106,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6130,13 +6118,13 @@
         <v>202948</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>234</v>
@@ -6145,13 +6133,13 @@
         <v>154789</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>424</v>
@@ -6160,13 +6148,13 @@
         <v>357737</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6169,13 @@
         <v>211416</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>367</v>
@@ -6196,13 +6184,13 @@
         <v>262934</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>603</v>
@@ -6211,13 +6199,13 @@
         <v>474350</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6273,13 @@
         <v>620499</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>900</v>
@@ -6300,13 +6288,13 @@
         <v>528281</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M28" s="7">
         <v>1615</v>
@@ -6315,13 +6303,13 @@
         <v>1148780</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,28 +6324,28 @@
         <v>990995</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>2168</v>
       </c>
       <c r="I29" s="7">
-        <v>1340562</v>
+        <v>1340561</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>3391</v>
@@ -6366,13 +6354,13 @@
         <v>2331556</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,7 +6387,7 @@
         <v>3068</v>
       </c>
       <c r="I30" s="7">
-        <v>1868843</v>
+        <v>1868842</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>32</v>

--- a/data/trans_orig/P44-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9805A0C5-ADB3-4D0C-9B12-148D156C806D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1397DC48-1E98-4186-B285-79D148602563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{465D1695-E29B-4E9F-A8DF-15D6B14DE8A8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16A0E969-F660-48F2-A78B-5649CF51FF21}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="476">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>86,06%</t>
   </si>
   <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,1204 +145,1216 @@
     <t>8,17%</t>
   </si>
   <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2016 (Tasa respuesta: 41,68%)</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>96,36%</t>
   </si>
   <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2015 (Tasa respuesta: 41,68%)</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>67,74%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
   </si>
   <si>
     <t>80,59%</t>
@@ -1865,7 +1877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB286C8-030E-4F65-AB5E-82CA07C1F153}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2051DE-390B-4858-B5FD-B8EAFCBDC209}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2922,7 +2934,7 @@
         <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -2931,13 +2943,13 @@
         <v>40638</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2964,13 @@
         <v>220301</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>243</v>
@@ -2967,13 +2979,13 @@
         <v>273415</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>441</v>
@@ -2982,13 +2994,13 @@
         <v>493716</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3056,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3056,13 +3068,13 @@
         <v>28008</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3071,13 +3083,13 @@
         <v>15045</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -3086,13 +3098,13 @@
         <v>43052</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3119,13 @@
         <v>233074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>283</v>
@@ -3122,13 +3134,13 @@
         <v>311669</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>489</v>
@@ -3137,13 +3149,13 @@
         <v>544744</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,10 +3226,10 @@
         <v>91</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>100</v>
@@ -3226,13 +3238,13 @@
         <v>110061</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M28" s="7">
         <v>198</v>
@@ -3241,13 +3253,13 @@
         <v>223818</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,10 +3277,10 @@
         <v>100</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>1249</v>
@@ -3277,13 +3289,13 @@
         <v>1357419</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>2227</v>
@@ -3292,13 +3304,13 @@
         <v>2437710</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3366,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0478F-185B-41EF-8A5A-5DCEA37E1146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B32F2-4671-4384-91B5-697716970379}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3395,7 +3407,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3502,13 +3514,13 @@
         <v>24163</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3517,13 +3529,13 @@
         <v>16912</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -3532,13 +3544,13 @@
         <v>41075</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3565,13 @@
         <v>81265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -3568,13 +3580,13 @@
         <v>90962</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>158</v>
@@ -3583,13 +3595,13 @@
         <v>172228</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3669,13 @@
         <v>11204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3672,13 +3684,13 @@
         <v>6731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3687,13 +3699,13 @@
         <v>17936</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3720,13 @@
         <v>198311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>200</v>
@@ -3723,13 +3735,13 @@
         <v>235377</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>388</v>
@@ -3738,7 +3750,7 @@
         <v>433687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>195</v>
@@ -3827,13 +3839,13 @@
         <v>19952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -3842,7 +3854,7 @@
         <v>41635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>203</v>
@@ -3878,13 +3890,13 @@
         <v>139002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>253</v>
@@ -3893,7 +3905,7 @@
         <v>260029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>211</v>
@@ -4000,10 +4012,10 @@
         <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4030,13 @@
         <v>136983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -4033,13 +4045,13 @@
         <v>165614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>278</v>
@@ -4048,13 +4060,13 @@
         <v>302597</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4134,13 @@
         <v>2972</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4137,13 +4149,13 @@
         <v>3989</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4152,13 +4164,13 @@
         <v>6961</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4185,13 @@
         <v>84118</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -4188,13 +4200,13 @@
         <v>102559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>183</v>
@@ -4203,10 +4215,10 @@
         <v>186678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>246</v>
@@ -4307,7 +4319,7 @@
         <v>18991</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>253</v>
@@ -4358,7 +4370,7 @@
         <v>230504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>261</v>
@@ -4465,10 +4477,10 @@
         <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4495,13 @@
         <v>220712</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>224</v>
@@ -4498,13 +4510,13 @@
         <v>259685</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>418</v>
@@ -4513,13 +4525,13 @@
         <v>480397</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,7 +4587,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4587,13 +4599,13 @@
         <v>26406</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -4602,13 +4614,13 @@
         <v>13470</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -4617,13 +4629,13 @@
         <v>39876</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4650,13 @@
         <v>288241</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>298</v>
@@ -4653,7 +4665,7 @@
         <v>356804</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>292</v>
@@ -4885,7 +4897,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4909,7 +4921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB464B-16EB-479C-9DB7-7A5739AC4F50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC0D99-BF16-43AF-B202-9A0A9A591D10}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5671,10 +5683,10 @@
         <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -5683,13 +5695,13 @@
         <v>29517</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5716,13 @@
         <v>69973</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
@@ -5719,13 +5731,13 @@
         <v>97971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>357</v>
@@ -5734,13 +5746,13 @@
         <v>167945</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5820,13 @@
         <v>40845</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -5823,13 +5835,13 @@
         <v>32870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -5838,13 +5850,13 @@
         <v>73715</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5871,13 @@
         <v>98716</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -5874,13 +5886,13 @@
         <v>105118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -5889,13 +5901,13 @@
         <v>203833</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5975,13 @@
         <v>113743</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
@@ -5978,13 +5990,13 @@
         <v>124380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -5993,10 +6005,10 @@
         <v>238124</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>163</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>357</v>
@@ -6014,13 +6026,13 @@
         <v>189025</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H23" s="7">
         <v>325</v>
@@ -6029,13 +6041,13 @@
         <v>311006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>542</v>
@@ -6044,13 +6056,13 @@
         <v>500030</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>438</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>365</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,7 +6118,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6118,13 +6130,13 @@
         <v>202948</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>234</v>
@@ -6133,13 +6145,13 @@
         <v>154789</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>424</v>
@@ -6148,13 +6160,13 @@
         <v>357737</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6181,13 @@
         <v>211416</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>367</v>
@@ -6184,13 +6196,13 @@
         <v>262934</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>603</v>
@@ -6199,13 +6211,13 @@
         <v>474350</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6285,13 @@
         <v>620499</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>900</v>
@@ -6288,13 +6300,13 @@
         <v>528281</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M28" s="7">
         <v>1615</v>
@@ -6303,13 +6315,13 @@
         <v>1148780</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6336,13 @@
         <v>990995</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>2168</v>
@@ -6339,13 +6351,13 @@
         <v>1340561</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>3391</v>
@@ -6354,13 +6366,13 @@
         <v>2331556</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,7 +6428,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1397DC48-1E98-4186-B285-79D148602563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B186DE2-7CE1-470A-B19B-3BE040C8434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16A0E969-F660-48F2-A78B-5649CF51FF21}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C94BDC73-507B-40C6-811E-274C3A1D87FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -85,55 +85,55 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>86,06%</t>
   </si>
   <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,844 +145,844 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2016 (Tasa respuesta: 41,68%)</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>93,73%</t>
   </si>
   <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2016 (Tasa respuesta: 41,68%)</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>97,95%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>95,94%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>92,52%</t>
   </si>
   <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
@@ -991,481 +991,481 @@
     <t>56,49%</t>
   </si>
   <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
   </si>
   <si>
     <t>27,38%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>41,41%</t>
   </si>
   <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
   </si>
   <si>
     <t>72,62%</t>
   </si>
   <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
   </si>
   <si>
     <t>32,0%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>23,67%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
   </si>
   <si>
     <t>68,0%</t>
   </si>
   <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>76,33%</t>
   </si>
   <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
   </si>
   <si>
     <t>33,69%</t>
   </si>
   <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
   </si>
   <si>
     <t>34,81%</t>
   </si>
   <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>63,98%</t>
   </si>
   <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
   </si>
   <si>
     <t>66,31%</t>
   </si>
   <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
   </si>
   <si>
     <t>65,19%</t>
   </si>
   <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
   </si>
   <si>
     <t>30,93%</t>
   </si>
   <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
   </si>
   <si>
     <t>68,73%</t>
   </si>
   <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>69,07%</t>
   </si>
   <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
   </si>
   <si>
     <t>23,82%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
   </si>
   <si>
     <t>26,56%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
   </si>
   <si>
     <t>76,18%</t>
   </si>
   <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>73,44%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>37,57%</t>
   </si>
   <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>28,57%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
   </si>
   <si>
     <t>62,43%</t>
   </si>
   <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
   </si>
   <si>
     <t>71,43%</t>
   </si>
   <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>48,98%</t>
   </si>
   <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
   </si>
   <si>
     <t>37,06%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
   </si>
   <si>
     <t>42,99%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
   </si>
   <si>
     <t>51,02%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
   </si>
   <si>
     <t>62,94%</t>
   </si>
   <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
   </si>
   <si>
     <t>57,01%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>38,5%</t>
   </si>
   <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>61,5%</t>
   </si>
   <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2051DE-390B-4858-B5FD-B8EAFCBDC209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64454FD7-9A6E-480E-89BA-1AA81E47C206}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2636,10 +2636,10 @@
         <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2654,13 @@
         <v>70896</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -2669,13 +2669,13 @@
         <v>82987</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>142</v>
@@ -2684,13 +2684,13 @@
         <v>153884</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,7 +2746,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2758,13 +2758,13 @@
         <v>10271</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -2773,13 +2773,13 @@
         <v>6292</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2788,13 +2788,13 @@
         <v>16563</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2809,13 @@
         <v>97478</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -2824,13 +2824,13 @@
         <v>123571</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>212</v>
@@ -2839,13 +2839,13 @@
         <v>221049</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,7 +2901,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2913,13 +2913,13 @@
         <v>17974</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -2928,13 +2928,13 @@
         <v>22665</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -2943,13 +2943,13 @@
         <v>40638</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2964,13 @@
         <v>220301</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>243</v>
@@ -2979,13 +2979,13 @@
         <v>273415</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="M23" s="7">
         <v>441</v>
@@ -2994,13 +2994,13 @@
         <v>493716</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,7 +3056,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3068,13 +3068,13 @@
         <v>28008</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3083,13 +3083,13 @@
         <v>15045</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -3098,13 +3098,13 @@
         <v>43052</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3119,13 @@
         <v>233074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>283</v>
@@ -3134,13 +3134,13 @@
         <v>311669</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>489</v>
@@ -3149,13 +3149,13 @@
         <v>544744</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3223,13 @@
         <v>113756</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>100</v>
@@ -3238,13 +3238,13 @@
         <v>110061</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M28" s="7">
         <v>198</v>
@@ -3253,13 +3253,13 @@
         <v>223818</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3274,13 @@
         <v>1080292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>1249</v>
@@ -3289,13 +3289,13 @@
         <v>1357419</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>2227</v>
@@ -3304,13 +3304,13 @@
         <v>2437710</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3366,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3390,7 +3390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B32F2-4671-4384-91B5-697716970379}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9495EAB2-34FF-4F4A-AE9E-6535687D3E92}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3407,7 +3407,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3514,13 +3514,13 @@
         <v>24163</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3529,13 +3529,13 @@
         <v>16912</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -3544,13 +3544,13 @@
         <v>41075</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3565,13 @@
         <v>81265</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -3580,13 +3580,13 @@
         <v>90962</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>158</v>
@@ -3595,13 +3595,13 @@
         <v>172228</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3669,13 @@
         <v>11204</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3684,13 +3684,13 @@
         <v>6731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3699,13 +3699,13 @@
         <v>17936</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3720,13 @@
         <v>198311</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>200</v>
@@ -3735,13 +3735,13 @@
         <v>235377</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>388</v>
@@ -3750,13 +3750,13 @@
         <v>433687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3824,13 @@
         <v>21682</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -3839,13 +3839,13 @@
         <v>19952</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -3854,13 +3854,13 @@
         <v>41635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3875,13 @@
         <v>121028</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>126</v>
@@ -3890,13 +3890,13 @@
         <v>139002</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>253</v>
@@ -3905,7 +3905,7 @@
         <v>260029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>211</v>
@@ -4012,10 +4012,10 @@
         <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4030,13 @@
         <v>136983</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -4045,13 +4045,13 @@
         <v>165614</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>278</v>
@@ -4060,13 +4060,13 @@
         <v>302597</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4134,13 @@
         <v>2972</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4149,13 +4149,13 @@
         <v>3989</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4164,13 +4164,13 @@
         <v>6961</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4185,13 @@
         <v>84118</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -4200,13 +4200,13 @@
         <v>102559</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>183</v>
@@ -4215,10 +4215,10 @@
         <v>186678</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>246</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4319,7 +4319,7 @@
         <v>18991</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>253</v>
@@ -4370,7 +4370,7 @@
         <v>230504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>261</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4477,10 +4477,10 @@
         <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4495,13 @@
         <v>220712</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>224</v>
@@ -4510,13 +4510,13 @@
         <v>259685</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>418</v>
@@ -4525,13 +4525,13 @@
         <v>480397</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,7 +4587,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4599,13 +4599,13 @@
         <v>26406</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -4614,13 +4614,13 @@
         <v>13470</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -4629,13 +4629,13 @@
         <v>39876</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4650,13 @@
         <v>288241</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>298</v>
@@ -4665,13 +4665,13 @@
         <v>356804</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>581</v>
@@ -4680,10 +4680,10 @@
         <v>645044</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>296</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +4921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC0D99-BF16-43AF-B202-9A0A9A591D10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692B6C22-30EB-4433-8981-6D47CA729101}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5808,7 +5808,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6005,13 +6005,13 @@
         <v>238124</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,10 +6056,10 @@
         <v>500030</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>439</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6348,7 +6348,7 @@
         <v>2168</v>
       </c>
       <c r="I29" s="7">
-        <v>1340561</v>
+        <v>1340562</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>470</v>
@@ -6399,7 +6399,7 @@
         <v>3068</v>
       </c>
       <c r="I30" s="7">
-        <v>1868842</v>
+        <v>1868843</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>32</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B186DE2-7CE1-470A-B19B-3BE040C8434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B15EB78D-33C6-4DE6-9DE0-8B84A3B9EE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C94BDC73-507B-40C6-811E-274C3A1D87FE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7964D2AE-5278-440D-AF68-C9DD552A42EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="493">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -73,12 +73,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -136,9 +190,6 @@
     <t>91,74%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -199,58 +250,58 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -988,484 +1039,484 @@
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
   </si>
   <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
   <si>
     <t>33,69%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
+    <t>28,34%</t>
   </si>
   <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
   </si>
   <si>
     <t>66,31%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
     <t>60,4%</t>
   </si>
   <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64454FD7-9A6E-480E-89BA-1AA81E47C206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E296CC40-757E-49C3-A851-B1D7060FF2DC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1995,88 +2046,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6955</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11070</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="N4" s="7">
+        <v>18025</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D5" s="7">
+        <v>78542</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="I5" s="7">
+        <v>92196</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="N5" s="7">
+        <v>170737</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,48 +2148,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>85497</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="I6" s="7">
+        <v>103266</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>172</v>
+      </c>
+      <c r="N6" s="7">
+        <v>188762</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2138,13 +2207,13 @@
         <v>24113</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2153,13 +2222,13 @@
         <v>20413</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -2168,19 +2237,19 @@
         <v>44526</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>133</v>
@@ -2189,13 +2258,13 @@
         <v>148873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>174</v>
@@ -2204,13 +2273,13 @@
         <v>193128</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>307</v>
@@ -2219,13 +2288,13 @@
         <v>342001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2309,13 @@
         <v>172986</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>193</v>
@@ -2255,13 +2324,13 @@
         <v>213541</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>345</v>
@@ -2270,18 +2339,18 @@
         <v>386527</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2293,13 +2362,13 @@
         <v>9219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2308,13 +2377,13 @@
         <v>13312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -2323,19 +2392,19 @@
         <v>22531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>100</v>
@@ -2344,13 +2413,13 @@
         <v>103576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>126</v>
@@ -2359,13 +2428,13 @@
         <v>135646</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>226</v>
@@ -2374,13 +2443,13 @@
         <v>239221</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2464,13 @@
         <v>112795</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>138</v>
@@ -2410,13 +2479,13 @@
         <v>148958</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>246</v>
@@ -2425,117 +2494,117 @@
         <v>261752</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>17874</v>
+        <v>10919</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>25770</v>
+        <v>14699</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>43643</v>
+        <v>25618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="D14" s="7">
-        <v>206094</v>
+        <v>127553</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="I14" s="7">
-        <v>237001</v>
+        <v>144806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>410</v>
+        <v>255</v>
       </c>
       <c r="N14" s="7">
-        <v>443096</v>
+        <v>272359</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,54 +2613,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="D15" s="7">
-        <v>223968</v>
+        <v>138472</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="I15" s="7">
-        <v>262771</v>
+        <v>159505</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>450</v>
+        <v>278</v>
       </c>
       <c r="N15" s="7">
-        <v>486739</v>
+        <v>297977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2603,13 +2672,13 @@
         <v>6298</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2618,13 +2687,13 @@
         <v>6566</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2633,19 +2702,19 @@
         <v>12864</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>62</v>
@@ -2654,13 +2723,13 @@
         <v>70896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -2669,13 +2738,13 @@
         <v>82987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>142</v>
@@ -2684,13 +2753,13 @@
         <v>153884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2774,13 @@
         <v>77194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>86</v>
@@ -2720,13 +2789,13 @@
         <v>89553</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>154</v>
@@ -2735,18 +2804,18 @@
         <v>166748</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2758,13 +2827,13 @@
         <v>10271</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -2773,13 +2842,13 @@
         <v>6292</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2788,19 +2857,19 @@
         <v>16563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>92</v>
@@ -2809,13 +2878,13 @@
         <v>97478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -2824,13 +2893,13 @@
         <v>123571</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>212</v>
@@ -2839,13 +2908,13 @@
         <v>221049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2929,13 @@
         <v>107749</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>126</v>
@@ -2875,13 +2944,13 @@
         <v>129863</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>228</v>
@@ -2890,18 +2959,18 @@
         <v>237612</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2913,13 +2982,13 @@
         <v>17974</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -2928,13 +2997,13 @@
         <v>22665</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -2943,19 +3012,19 @@
         <v>40638</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>198</v>
@@ -2964,13 +3033,13 @@
         <v>220301</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>243</v>
@@ -2979,13 +3048,13 @@
         <v>273415</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>441</v>
@@ -2994,13 +3063,13 @@
         <v>493716</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3084,13 @@
         <v>238275</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>262</v>
@@ -3030,13 +3099,13 @@
         <v>296080</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>475</v>
@@ -3045,18 +3114,18 @@
         <v>534354</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3068,13 +3137,13 @@
         <v>28008</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3083,13 +3152,13 @@
         <v>15045</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -3098,19 +3167,19 @@
         <v>43052</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>206</v>
@@ -3119,13 +3188,13 @@
         <v>233074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>283</v>
@@ -3134,13 +3203,13 @@
         <v>311669</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>489</v>
@@ -3149,13 +3218,13 @@
         <v>544744</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3239,13 @@
         <v>261082</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>297</v>
@@ -3185,13 +3254,13 @@
         <v>326714</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>527</v>
@@ -3200,13 +3269,13 @@
         <v>587796</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,16 +3289,16 @@
         <v>98</v>
       </c>
       <c r="D28" s="7">
-        <v>113756</v>
+        <v>113757</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>100</v>
@@ -3238,13 +3307,13 @@
         <v>110061</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>198</v>
@@ -3253,19 +3322,19 @@
         <v>223818</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>978</v>
@@ -3274,13 +3343,13 @@
         <v>1080292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>1249</v>
@@ -3289,13 +3358,13 @@
         <v>1357419</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>2227</v>
@@ -3304,13 +3373,13 @@
         <v>2437710</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,16 +3391,16 @@
         <v>1076</v>
       </c>
       <c r="D30" s="7">
-        <v>1194048</v>
+        <v>1194049</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>1349</v>
@@ -3340,13 +3409,13 @@
         <v>1467480</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>2425</v>
@@ -3355,18 +3424,18 @@
         <v>2661528</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3390,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9495EAB2-34FF-4F4A-AE9E-6535687D3E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986EEE59-8171-444C-8186-0D0228D591FA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3407,7 +3476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3514,13 +3583,13 @@
         <v>24163</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3529,13 +3598,13 @@
         <v>16912</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -3544,19 +3613,19 @@
         <v>41075</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>77</v>
@@ -3565,13 +3634,13 @@
         <v>81265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -3580,13 +3649,13 @@
         <v>90962</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>158</v>
@@ -3595,13 +3664,13 @@
         <v>172228</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3685,13 @@
         <v>105428</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>96</v>
@@ -3631,13 +3700,13 @@
         <v>107874</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>196</v>
@@ -3646,18 +3715,18 @@
         <v>213303</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3669,13 +3738,13 @@
         <v>11204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3684,13 +3753,13 @@
         <v>6731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3699,19 +3768,19 @@
         <v>17936</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>188</v>
@@ -3720,13 +3789,13 @@
         <v>198311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>200</v>
@@ -3735,13 +3804,13 @@
         <v>235377</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>388</v>
@@ -3750,13 +3819,13 @@
         <v>433687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3840,13 @@
         <v>209515</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>206</v>
@@ -3786,13 +3855,13 @@
         <v>242108</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>405</v>
@@ -3801,18 +3870,18 @@
         <v>451623</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3824,13 +3893,13 @@
         <v>21682</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -3839,13 +3908,13 @@
         <v>19952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -3854,19 +3923,19 @@
         <v>41635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>127</v>
@@ -3875,13 +3944,13 @@
         <v>121028</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>126</v>
@@ -3890,13 +3959,13 @@
         <v>139002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>253</v>
@@ -3905,13 +3974,13 @@
         <v>260029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3995,13 @@
         <v>142710</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>142</v>
@@ -3941,13 +4010,13 @@
         <v>158954</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>292</v>
@@ -3956,18 +4025,18 @@
         <v>301664</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3979,13 +4048,13 @@
         <v>26838</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3994,13 +4063,13 @@
         <v>20421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -4009,19 +4078,19 @@
         <v>47259</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>134</v>
@@ -4030,13 +4099,13 @@
         <v>136983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -4045,13 +4114,13 @@
         <v>165614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>278</v>
@@ -4060,13 +4129,13 @@
         <v>302597</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4150,13 @@
         <v>163821</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>161</v>
@@ -4096,13 +4165,13 @@
         <v>186035</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>322</v>
@@ -4111,18 +4180,18 @@
         <v>349856</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4134,13 +4203,13 @@
         <v>2972</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4149,13 +4218,13 @@
         <v>3989</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4164,19 +4233,19 @@
         <v>6961</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>86</v>
@@ -4185,13 +4254,13 @@
         <v>84118</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -4200,13 +4269,13 @@
         <v>102559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>183</v>
@@ -4215,13 +4284,13 @@
         <v>186678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4305,13 @@
         <v>87090</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>101</v>
@@ -4251,13 +4320,13 @@
         <v>106548</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>190</v>
@@ -4266,18 +4335,18 @@
         <v>193639</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4289,13 +4358,13 @@
         <v>10387</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4304,13 +4373,13 @@
         <v>8605</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -4319,19 +4388,19 @@
         <v>18991</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>103</v>
@@ -4340,13 +4409,13 @@
         <v>103999</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>114</v>
@@ -4355,13 +4424,13 @@
         <v>126504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -4370,13 +4439,13 @@
         <v>230504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4460,13 @@
         <v>114386</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>122</v>
@@ -4406,13 +4475,13 @@
         <v>135109</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>235</v>
@@ -4421,18 +4490,18 @@
         <v>249495</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4444,13 +4513,13 @@
         <v>41217</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4459,13 +4528,13 @@
         <v>29218</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -4474,19 +4543,19 @@
         <v>70435</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>194</v>
@@ -4495,13 +4564,13 @@
         <v>220712</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="H23" s="7">
         <v>224</v>
@@ -4510,13 +4579,13 @@
         <v>259685</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>418</v>
@@ -4525,13 +4594,13 @@
         <v>480397</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4615,13 @@
         <v>261929</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>249</v>
@@ -4561,13 +4630,13 @@
         <v>288903</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>482</v>
@@ -4576,18 +4645,18 @@
         <v>550832</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4599,13 +4668,13 @@
         <v>26406</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -4614,13 +4683,13 @@
         <v>13470</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -4629,19 +4698,19 @@
         <v>39876</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>283</v>
@@ -4650,13 +4719,13 @@
         <v>288241</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>298</v>
@@ -4665,28 +4734,28 @@
         <v>356804</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>581</v>
       </c>
       <c r="N26" s="7">
-        <v>645044</v>
+        <v>645045</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4770,13 @@
         <v>314647</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>310</v>
@@ -4716,28 +4785,28 @@
         <v>370274</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>616</v>
       </c>
       <c r="N27" s="7">
-        <v>684920</v>
+        <v>684921</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4823,13 @@
         <v>164868</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="H28" s="7">
         <v>103</v>
@@ -4769,13 +4838,13 @@
         <v>119300</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
         <v>262</v>
@@ -4784,19 +4853,19 @@
         <v>284168</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>1192</v>
@@ -4805,13 +4874,13 @@
         <v>1234658</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>1284</v>
@@ -4820,13 +4889,13 @@
         <v>1476506</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>2476</v>
@@ -4835,13 +4904,13 @@
         <v>2711164</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4925,13 @@
         <v>1399526</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>1387</v>
@@ -4871,13 +4940,13 @@
         <v>1595806</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>2738</v>
@@ -4886,18 +4955,18 @@
         <v>2995332</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +4990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692B6C22-30EB-4433-8981-6D47CA729101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59485CD-421C-459E-9424-399C8198E27B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4938,7 +5007,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5042,97 +5111,97 @@
         <v>94</v>
       </c>
       <c r="D4" s="7">
-        <v>66442</v>
+        <v>73367</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>75</v>
       </c>
       <c r="I4" s="7">
-        <v>34608</v>
+        <v>35679</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>169</v>
       </c>
       <c r="N4" s="7">
-        <v>101050</v>
+        <v>109046</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>82</v>
       </c>
       <c r="D5" s="7">
-        <v>51184</v>
+        <v>56198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>200</v>
       </c>
       <c r="I5" s="7">
-        <v>91804</v>
+        <v>94264</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>282</v>
       </c>
       <c r="N5" s="7">
-        <v>142988</v>
+        <v>150462</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,51 +5213,51 @@
         <v>176</v>
       </c>
       <c r="D6" s="7">
-        <v>117626</v>
+        <v>129565</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>275</v>
       </c>
       <c r="I6" s="7">
-        <v>126412</v>
+        <v>129943</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>451</v>
       </c>
       <c r="N6" s="7">
-        <v>244038</v>
+        <v>259508</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5197,97 +5266,97 @@
         <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>67066</v>
+        <v>63551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>42777</v>
+        <v>39517</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
       </c>
       <c r="N7" s="7">
-        <v>109843</v>
+        <v>103069</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>142536</v>
+        <v>134529</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
       </c>
       <c r="I8" s="7">
-        <v>211695</v>
+        <v>195033</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>456</v>
       </c>
       <c r="N8" s="7">
-        <v>354231</v>
+        <v>329561</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,51 +5368,51 @@
         <v>198</v>
       </c>
       <c r="D9" s="7">
-        <v>209602</v>
+        <v>198080</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>386</v>
       </c>
       <c r="I9" s="7">
-        <v>254472</v>
+        <v>234550</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>584</v>
       </c>
       <c r="N9" s="7">
-        <v>464074</v>
+        <v>432630</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5352,97 +5421,97 @@
         <v>80</v>
       </c>
       <c r="D10" s="7">
-        <v>59479</v>
+        <v>56800</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
       </c>
       <c r="I10" s="7">
-        <v>60231</v>
+        <v>55754</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>183</v>
       </c>
       <c r="N10" s="7">
-        <v>119710</v>
+        <v>112555</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>138</v>
       </c>
       <c r="D11" s="7">
-        <v>105649</v>
+        <v>100855</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>200</v>
       </c>
       <c r="I11" s="7">
-        <v>118550</v>
+        <v>109733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>338</v>
       </c>
       <c r="N11" s="7">
-        <v>224199</v>
+        <v>210587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,51 +5523,51 @@
         <v>218</v>
       </c>
       <c r="D12" s="7">
-        <v>165128</v>
+        <v>157655</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>303</v>
       </c>
       <c r="I12" s="7">
-        <v>178781</v>
+        <v>165487</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>521</v>
       </c>
       <c r="N12" s="7">
-        <v>343909</v>
+        <v>323142</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5507,97 +5576,97 @@
         <v>73</v>
       </c>
       <c r="D13" s="7">
-        <v>55724</v>
+        <v>52870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
       </c>
       <c r="I13" s="7">
-        <v>63359</v>
+        <v>59177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>196</v>
       </c>
       <c r="N13" s="7">
-        <v>119084</v>
+        <v>112046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>132</v>
       </c>
       <c r="D14" s="7">
-        <v>122495</v>
+        <v>116256</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>280</v>
       </c>
       <c r="I14" s="7">
-        <v>141486</v>
+        <v>132045</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>412</v>
       </c>
       <c r="N14" s="7">
-        <v>263980</v>
+        <v>248302</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,51 +5678,51 @@
         <v>205</v>
       </c>
       <c r="D15" s="7">
-        <v>178219</v>
+        <v>169126</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>403</v>
       </c>
       <c r="I15" s="7">
-        <v>204845</v>
+        <v>191222</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>608</v>
       </c>
       <c r="N15" s="7">
-        <v>383064</v>
+        <v>360348</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5662,97 +5731,97 @@
         <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>14252</v>
+        <v>12873</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
       </c>
       <c r="I16" s="7">
-        <v>15266</v>
+        <v>13937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
       </c>
       <c r="N16" s="7">
-        <v>29517</v>
+        <v>26810</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>114</v>
       </c>
       <c r="D17" s="7">
-        <v>69973</v>
+        <v>63640</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
       </c>
       <c r="I17" s="7">
-        <v>97971</v>
+        <v>89330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>357</v>
       </c>
       <c r="N17" s="7">
-        <v>167945</v>
+        <v>152970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,51 +5833,51 @@
         <v>138</v>
       </c>
       <c r="D18" s="7">
-        <v>84225</v>
+        <v>76513</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>282</v>
       </c>
       <c r="I18" s="7">
-        <v>113237</v>
+        <v>103267</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
       </c>
       <c r="N18" s="7">
-        <v>197462</v>
+        <v>179780</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5817,97 +5886,97 @@
         <v>64</v>
       </c>
       <c r="D19" s="7">
-        <v>40845</v>
+        <v>38935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
       </c>
       <c r="I19" s="7">
-        <v>32870</v>
+        <v>30552</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
       </c>
       <c r="N19" s="7">
-        <v>73715</v>
+        <v>69487</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>168</v>
       </c>
       <c r="D20" s="7">
-        <v>98716</v>
+        <v>93969</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
       </c>
       <c r="I20" s="7">
-        <v>105118</v>
+        <v>97971</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
       </c>
       <c r="N20" s="7">
-        <v>203833</v>
+        <v>191940</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,51 +5988,51 @@
         <v>232</v>
       </c>
       <c r="D21" s="7">
-        <v>139561</v>
+        <v>132904</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>296</v>
       </c>
       <c r="I21" s="7">
-        <v>137988</v>
+        <v>128523</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>528</v>
       </c>
       <c r="N21" s="7">
-        <v>277548</v>
+        <v>261427</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5972,97 +6041,97 @@
         <v>128</v>
       </c>
       <c r="D22" s="7">
-        <v>113743</v>
+        <v>108149</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
       </c>
       <c r="I22" s="7">
-        <v>124380</v>
+        <v>114700</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
       </c>
       <c r="N22" s="7">
-        <v>238124</v>
+        <v>222848</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>163</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>217</v>
       </c>
       <c r="D23" s="7">
-        <v>189025</v>
+        <v>184549</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H23" s="7">
         <v>325</v>
       </c>
       <c r="I23" s="7">
-        <v>311006</v>
+        <v>389881</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>542</v>
       </c>
       <c r="N23" s="7">
-        <v>500030</v>
+        <v>574431</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>456</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,51 +6143,51 @@
         <v>345</v>
       </c>
       <c r="D24" s="7">
-        <v>302768</v>
+        <v>292698</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>522</v>
       </c>
       <c r="I24" s="7">
-        <v>435386</v>
+        <v>504581</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>867</v>
       </c>
       <c r="N24" s="7">
-        <v>738154</v>
+        <v>797279</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6127,97 +6196,97 @@
         <v>190</v>
       </c>
       <c r="D25" s="7">
-        <v>202948</v>
+        <v>373952</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="H25" s="7">
         <v>234</v>
       </c>
       <c r="I25" s="7">
-        <v>154789</v>
+        <v>130107</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>424</v>
       </c>
       <c r="N25" s="7">
-        <v>357737</v>
+        <v>504059</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>236</v>
       </c>
       <c r="D26" s="7">
-        <v>211416</v>
+        <v>179531</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="H26" s="7">
         <v>367</v>
       </c>
       <c r="I26" s="7">
-        <v>262934</v>
+        <v>220282</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>603</v>
       </c>
       <c r="N26" s="7">
-        <v>474350</v>
+        <v>399813</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,46 +6298,46 @@
         <v>426</v>
       </c>
       <c r="D27" s="7">
-        <v>414364</v>
+        <v>553483</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>601</v>
       </c>
       <c r="I27" s="7">
-        <v>417723</v>
+        <v>350389</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1027</v>
       </c>
       <c r="N27" s="7">
-        <v>832087</v>
+        <v>903872</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,97 +6351,97 @@
         <v>715</v>
       </c>
       <c r="D28" s="7">
-        <v>620499</v>
+        <v>780497</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="H28" s="7">
         <v>900</v>
       </c>
       <c r="I28" s="7">
-        <v>528281</v>
+        <v>479423</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="M28" s="7">
         <v>1615</v>
       </c>
       <c r="N28" s="7">
-        <v>1148780</v>
+        <v>1259920</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>1223</v>
       </c>
       <c r="D29" s="7">
-        <v>990995</v>
+        <v>929527</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>351</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="H29" s="7">
         <v>2168</v>
       </c>
       <c r="I29" s="7">
-        <v>1340562</v>
+        <v>1328539</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="M29" s="7">
         <v>3391</v>
       </c>
       <c r="N29" s="7">
-        <v>2331556</v>
+        <v>2258066</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,51 +6453,51 @@
         <v>1938</v>
       </c>
       <c r="D30" s="7">
-        <v>1611494</v>
+        <v>1710024</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3068</v>
       </c>
       <c r="I30" s="7">
-        <v>1868843</v>
+        <v>1807962</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>5006</v>
       </c>
       <c r="N30" s="7">
-        <v>3480336</v>
+        <v>3517986</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
